--- a/slopes_errorrate_per_run.xlsx
+++ b/slopes_errorrate_per_run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gt/Documents/GitHub/ClosedLoop_Offline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EDF71-B6BD-D446-855F-7B34C6BC8C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6F901-61E0-F749-B3FD-443B0B1D6A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16420" yWindow="2260" windowWidth="15520" windowHeight="17440" xr2:uid="{ABB99543-38CC-C340-A38F-3AE5735E7FF7}"/>
   </bookViews>
